--- a/Algs/KR_Nikita/Лист Microsoft Excel.xlsx
+++ b/Algs/KR_Nikita/Лист Microsoft Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Размер</t>
   </si>
@@ -38,7 +38,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -72,7 +72,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1904,18 +1904,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1928,8 +1928,20 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5000</v>
       </c>
@@ -1942,8 +1954,20 @@
       <c r="D2" s="2">
         <v>0.70113999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M2">
+        <v>5000</v>
+      </c>
+      <c r="N2" s="3">
+        <v>14.3593799999999</v>
+      </c>
+      <c r="O2" s="3">
+        <v>4.5294099999999897</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.70113999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6000</v>
       </c>
@@ -1956,8 +1980,20 @@
       <c r="D3" s="2">
         <v>0.90007999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M3">
+        <v>6000</v>
+      </c>
+      <c r="N3" s="2">
+        <v>12.83365</v>
+      </c>
+      <c r="O3" s="2">
+        <v>3.8898899999999998</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.90007999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7000</v>
       </c>
@@ -1970,8 +2006,20 @@
       <c r="D4" s="2">
         <v>0.92313000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M4">
+        <v>7000</v>
+      </c>
+      <c r="N4" s="2">
+        <v>15.991499999999901</v>
+      </c>
+      <c r="O4" s="2">
+        <v>4.4949399999999997</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.92313000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8000</v>
       </c>
@@ -1984,8 +2032,20 @@
       <c r="D5" s="2">
         <v>0.58149999999999902</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M5">
+        <v>8000</v>
+      </c>
+      <c r="N5" s="2">
+        <v>24.238399999999999</v>
+      </c>
+      <c r="O5" s="2">
+        <v>6.6419100000000002</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.58149999999999902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9000</v>
       </c>
@@ -1998,8 +2058,20 @@
       <c r="D6" s="2">
         <v>1.0793600000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M6">
+        <v>9000</v>
+      </c>
+      <c r="N6" s="2">
+        <v>28.726099999999999</v>
+      </c>
+      <c r="O6" s="2">
+        <v>8.2780100000000001</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1.0793600000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -2012,8 +2084,20 @@
       <c r="D7" s="2">
         <v>0.91942999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M7">
+        <v>10000</v>
+      </c>
+      <c r="N7" s="2">
+        <v>28.529620000000001</v>
+      </c>
+      <c r="O7" s="2">
+        <v>9.6173599999999997</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.91942999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11000</v>
       </c>
@@ -2026,8 +2110,20 @@
       <c r="D8" s="2">
         <v>0.96134999999999904</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M8">
+        <v>11000</v>
+      </c>
+      <c r="N8" s="2">
+        <v>33.809469999999997</v>
+      </c>
+      <c r="O8" s="2">
+        <v>10.824199999999999</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.96134999999999904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12000</v>
       </c>
@@ -2040,8 +2136,20 @@
       <c r="D9" s="2">
         <v>1.2953399999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M9">
+        <v>12000</v>
+      </c>
+      <c r="N9" s="2">
+        <v>40.482709999999997</v>
+      </c>
+      <c r="O9" s="2">
+        <v>10.778</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1.2953399999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13000</v>
       </c>
@@ -2054,8 +2162,20 @@
       <c r="D10" s="1">
         <v>1.2503899999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M10">
+        <v>13000</v>
+      </c>
+      <c r="N10" s="1">
+        <v>57.411569999999998</v>
+      </c>
+      <c r="O10" s="1">
+        <v>14.24874</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1.2503899999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14000</v>
       </c>
@@ -2068,8 +2188,20 @@
       <c r="D11" s="1">
         <v>1.4421900000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M11">
+        <v>14000</v>
+      </c>
+      <c r="N11" s="1">
+        <v>52.496339999999996</v>
+      </c>
+      <c r="O11" s="1">
+        <v>16.50028</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1.4421900000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15000</v>
       </c>
@@ -2082,8 +2214,20 @@
       <c r="D12" s="1">
         <v>1.55514999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M12">
+        <v>15000</v>
+      </c>
+      <c r="N12" s="1">
+        <v>60.916110000000003</v>
+      </c>
+      <c r="O12" s="1">
+        <v>21.920479999999898</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1.55514999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>16000</v>
       </c>
@@ -2096,8 +2240,20 @@
       <c r="D13" s="1">
         <v>4.6166400000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M13">
+        <v>16000</v>
+      </c>
+      <c r="N13" s="1">
+        <v>95.015829999999994</v>
+      </c>
+      <c r="O13" s="1">
+        <v>56.776679999999999</v>
+      </c>
+      <c r="P13" s="1">
+        <v>4.6166400000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>17000</v>
       </c>
@@ -2110,8 +2266,20 @@
       <c r="D14" s="1">
         <v>1.4456800000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M14">
+        <v>17000</v>
+      </c>
+      <c r="N14" s="1">
+        <v>86.277249999999995</v>
+      </c>
+      <c r="O14" s="1">
+        <v>23.40081</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1.4456800000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18000</v>
       </c>
@@ -2124,8 +2292,20 @@
       <c r="D15" s="1">
         <v>1.4250099999999899</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M15">
+        <v>18000</v>
+      </c>
+      <c r="N15" s="1">
+        <v>98.277150000000006</v>
+      </c>
+      <c r="O15" s="1">
+        <v>26.929559999999999</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1.4250099999999899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>19000</v>
       </c>
@@ -2138,8 +2318,20 @@
       <c r="D16" s="1">
         <v>1.9488799999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M16">
+        <v>19000</v>
+      </c>
+      <c r="N16" s="1">
+        <v>94.732680000000002</v>
+      </c>
+      <c r="O16" s="1">
+        <v>29.269690000000001</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1.9488799999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>20000</v>
       </c>
@@ -2152,8 +2344,20 @@
       <c r="D17" s="1">
         <v>2.0640100000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M17">
+        <v>20000</v>
+      </c>
+      <c r="N17" s="1">
+        <v>153.60168999999999</v>
+      </c>
+      <c r="O17" s="1">
+        <v>50.087199999999903</v>
+      </c>
+      <c r="P17" s="1">
+        <v>2.0640100000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>21000</v>
       </c>
@@ -2166,8 +2370,20 @@
       <c r="D18" s="1">
         <v>2.3094299999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M18">
+        <v>21000</v>
+      </c>
+      <c r="N18" s="1">
+        <v>169.51212999999899</v>
+      </c>
+      <c r="O18" s="1">
+        <v>56.9017699999999</v>
+      </c>
+      <c r="P18" s="1">
+        <v>2.3094299999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>22000</v>
       </c>
@@ -2180,8 +2396,20 @@
       <c r="D19" s="1">
         <v>3.2714699999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M19">
+        <v>22000</v>
+      </c>
+      <c r="N19" s="1">
+        <v>189.45932999999999</v>
+      </c>
+      <c r="O19" s="1">
+        <v>58.517299999999999</v>
+      </c>
+      <c r="P19" s="1">
+        <v>3.2714699999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>23000</v>
       </c>
@@ -2194,8 +2422,20 @@
       <c r="D20" s="1">
         <v>2.7814099999999899</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M20">
+        <v>23000</v>
+      </c>
+      <c r="N20" s="1">
+        <v>247.07355000000001</v>
+      </c>
+      <c r="O20" s="1">
+        <v>62.552639999999997</v>
+      </c>
+      <c r="P20" s="1">
+        <v>2.7814099999999899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>24000</v>
       </c>
@@ -2208,8 +2448,20 @@
       <c r="D21" s="1">
         <v>3.4051200000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M21">
+        <v>24000</v>
+      </c>
+      <c r="N21" s="1">
+        <v>236.675669999999</v>
+      </c>
+      <c r="O21" s="1">
+        <v>74.218800000000002</v>
+      </c>
+      <c r="P21" s="1">
+        <v>3.4051200000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>25000</v>
       </c>
@@ -2222,8 +2474,20 @@
       <c r="D22" s="1">
         <v>3.95024</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M22">
+        <v>25000</v>
+      </c>
+      <c r="N22" s="1">
+        <v>236.61043000000001</v>
+      </c>
+      <c r="O22" s="1">
+        <v>81.561599999999999</v>
+      </c>
+      <c r="P22" s="1">
+        <v>3.95024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>26000</v>
       </c>
@@ -2236,8 +2500,20 @@
       <c r="D23" s="1">
         <v>6.5240099999999996</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M23">
+        <v>26000</v>
+      </c>
+      <c r="N23" s="1">
+        <v>264.737449999999</v>
+      </c>
+      <c r="O23" s="1">
+        <v>131.89983999999899</v>
+      </c>
+      <c r="P23" s="1">
+        <v>6.5240099999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>27000</v>
       </c>
@@ -2250,8 +2526,20 @@
       <c r="D24" s="1">
         <v>3.4136099999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M24">
+        <v>27000</v>
+      </c>
+      <c r="N24" s="1">
+        <v>291.98518000000001</v>
+      </c>
+      <c r="O24" s="1">
+        <v>87.272999999999996</v>
+      </c>
+      <c r="P24" s="1">
+        <v>3.4136099999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28000</v>
       </c>
@@ -2264,8 +2552,20 @@
       <c r="D25" s="1">
         <v>3.7044700000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M25">
+        <v>28000</v>
+      </c>
+      <c r="N25" s="1">
+        <v>312.06029999999998</v>
+      </c>
+      <c r="O25" s="1">
+        <v>94.243899999999996</v>
+      </c>
+      <c r="P25" s="1">
+        <v>3.7044700000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>29000</v>
       </c>
@@ -2278,8 +2578,20 @@
       <c r="D26" s="1">
         <v>3.4699199999999899</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M26">
+        <v>29000</v>
+      </c>
+      <c r="N26" s="1">
+        <v>340.10120000000001</v>
+      </c>
+      <c r="O26" s="1">
+        <v>101.68519000000001</v>
+      </c>
+      <c r="P26" s="1">
+        <v>3.4699199999999899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>30000</v>
       </c>
@@ -2292,8 +2604,20 @@
       <c r="D27" s="1">
         <v>2.5130199999999898</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M27">
+        <v>30000</v>
+      </c>
+      <c r="N27" s="1">
+        <v>265.96402999999998</v>
+      </c>
+      <c r="O27" s="1">
+        <v>74.838049999999996</v>
+      </c>
+      <c r="P27" s="1">
+        <v>2.5130199999999898</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>31000</v>
       </c>
@@ -2306,8 +2630,20 @@
       <c r="D28" s="1">
         <v>2.8041799999999899</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M28">
+        <v>31000</v>
+      </c>
+      <c r="N28" s="1">
+        <v>280.26351</v>
+      </c>
+      <c r="O28" s="1">
+        <v>81.476900000000001</v>
+      </c>
+      <c r="P28" s="1">
+        <v>2.8041799999999899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>32000</v>
       </c>
@@ -2320,8 +2656,20 @@
       <c r="D29" s="1">
         <v>2.5671599999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M29">
+        <v>32000</v>
+      </c>
+      <c r="N29" s="1">
+        <v>331.91807</v>
+      </c>
+      <c r="O29" s="1">
+        <v>85.108260000000001</v>
+      </c>
+      <c r="P29" s="1">
+        <v>2.5671599999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>33000</v>
       </c>
@@ -2334,8 +2682,20 @@
       <c r="D30" s="1">
         <v>2.6003799999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M30">
+        <v>33000</v>
+      </c>
+      <c r="N30" s="1">
+        <v>300.36007000000001</v>
+      </c>
+      <c r="O30" s="1">
+        <v>90.242339999999899</v>
+      </c>
+      <c r="P30" s="1">
+        <v>2.6003799999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>34000</v>
       </c>
@@ -2348,8 +2708,20 @@
       <c r="D31" s="1">
         <v>3.17821</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="M31">
+        <v>34000</v>
+      </c>
+      <c r="N31" s="1">
+        <v>340.82094999999998</v>
+      </c>
+      <c r="O31" s="1">
+        <v>93.762829999999994</v>
+      </c>
+      <c r="P31" s="1">
+        <v>3.17821</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>35000</v>
       </c>
@@ -2362,8 +2734,20 @@
       <c r="D32" s="1">
         <v>3.5030299999999999</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="M32">
+        <v>35000</v>
+      </c>
+      <c r="N32" s="1">
+        <v>328.24231999999898</v>
+      </c>
+      <c r="O32" s="1">
+        <v>108.34951</v>
+      </c>
+      <c r="P32" s="1">
+        <v>3.5030299999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>

--- a/Algs/KR_Nikita/Лист Microsoft Excel.xlsx
+++ b/Algs/KR_Nikita/Лист Microsoft Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>Размер</t>
   </si>
@@ -1050,7 +1050,2005 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Выбором</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$M$2:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$N$2:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>22.98948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.53501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.445569999999901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.667660000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.077310000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.984569999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.365760000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.09019</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>45.873729999999902</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>181.72879999999901</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>66.076920000000001</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>73.662400000000005</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>88.698169999999905</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>91.345230000000001</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>89.170879999999997</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>109.75796</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>145.77654000000001</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>132.72393</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>176.31290999999999</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>211.10656</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>333.85816</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>286.26864</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>345.23115000000001</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>290.10079000000002</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>331.43444</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>360.12108999999998</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00">
+                  <c:v>374.70352000000003</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>430.96843999999999</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00">
+                  <c:v>438.07049999999998</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00">
+                  <c:v>386.21134000000001</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>331.3082</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A3A-4F74-A638-14D88E3C720F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вставками</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$M$2:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$O$2:$O$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>4.9922500000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8226200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1169399999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4845899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.86191</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.93018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.24902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.832850000000001</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>20.747209999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>31.895139999999898</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>22.06061</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>23.34646</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>26.8718</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>25.390239999999999</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>29.913609999999998</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>39.228490000000001</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>40.219819999999999</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>38.43862</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>67.591920000000002</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>68.026579999999996</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>81.108949999999993</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>77.688609999999997</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>87.46172</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>93.263439999999903</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>102.45189999999999</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>105.14722999999999</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00">
+                  <c:v>113.0346</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>130.25187999999901</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00">
+                  <c:v>139.75962999999999</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00">
+                  <c:v>100.937919999999</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>108.90761000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1A3A-4F74-A638-14D88E3C720F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Слиянием</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$M$2:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$P$2:$P$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1.8233200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4857199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4999400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95337000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.42747</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96190999999999904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76710999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95762000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>1.9597599999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>1.9318299999999899</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>1.5988499999999899</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>1.75596</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>1.42322999999999</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>1.2499499999999999</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>1.3256999999999901</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>2.8006299999999902</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>1.9601199999999901</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>2.8923000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>2.51132</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>3.1374599999999999</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>2.9432</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>3.3912</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>3.3527499999999999</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>4.3387199999999897</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>3.7502300000000002</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>4.2462499999999999</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00">
+                  <c:v>3.51329</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>4.4435399999999996</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00">
+                  <c:v>8.50673999999999</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00">
+                  <c:v>2.8397199999999998</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>2.6277099999999902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1A3A-4F74-A638-14D88E3C720F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2116884240"/>
+        <c:axId val="2120113296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2116884240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2120113296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2120113296"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2116884240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Выбором</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$Y$2:$Y$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$Z$2:$Z$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>9.7129899999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7929770000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.042518999999899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.931180000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.851994999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.619876999999899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.521780999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.656636999999897</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>45.075401999999897</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>59.025865999999901</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>81.946194999999904</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>102.804835</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>115.681283999999</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>88.652259999999998</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>131.522932</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>116.56058599999901</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>124.656083999999</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>133.37461099999899</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>148.94528099999999</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>156.12846300000001</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>173.00538099999901</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>196.12618199999901</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>267.554813999999</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>286.98009399999899</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>258.82401800000002</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>244.93095299999999</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00">
+                  <c:v>260.07032900000002</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>341.18166799999898</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00">
+                  <c:v>408.448375</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00">
+                  <c:v>421.58519699999903</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>445.73665199999903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7DA0-4D20-8210-B9C950FC7A34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вставками</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$Y$2:$Y$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$AA$2:$AA$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>2.62466499999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.931775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6709170000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.21164399999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7504639999999902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.106643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9267459999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.563473999999999</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>13.7593739999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>15.598356000000001</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>26.927256999999901</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>32.227576999999897</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>23.519027000000001</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>26.401167000000001</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>30.793668</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>35.290441999999999</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>33.786407999999902</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>40.644452999999999</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>45.827163999999897</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>47.530389999999997</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>53.689445999999897</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>83.109634999999898</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>83.511114999999904</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>81.811037999999996</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>70.029272000000006</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>80.089246999999901</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00">
+                  <c:v>88.788926000000004</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>118.117</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00">
+                  <c:v>127.98004400000001</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00">
+                  <c:v>137.10071600000001</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>139.86855600000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7DA0-4D20-8210-B9C950FC7A34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Слиянием</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$Y$2:$Y$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$AB$2:$AB$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.47929299999999903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45739099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.422376999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56025499999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56605499999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64714099999999897</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72462899999999897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86252499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>0.96049300000000004</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>1.0596219999999901</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>1.5969629999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>1.8700029999999901</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>1.229525</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>1.8255669999999999</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>1.4071180000000001</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>1.7825629999999999</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>1.5264179999999901</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>2.1884509999999899</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>2.00949</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>2.0369749999999902</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>2.2127059999999998</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>3.1870169999999902</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>3.2096290000000001</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>2.0717560000000002</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>2.55071099999999</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>2.5583930000000001</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00">
+                  <c:v>3.5182220000000002</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>3.7722069999999999</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00">
+                  <c:v>4.0346359999999999</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00">
+                  <c:v>4.2821759999999998</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>4.926933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7DA0-4D20-8210-B9C950FC7A34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="177057008"/>
+        <c:axId val="177068656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="177057008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="177068656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="177068656"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="177057008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1606,6 +3604,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1633,6 +4663,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>187325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1904,18 +4994,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1940,8 +5030,20 @@
       <c r="P1" t="s">
         <v>3</v>
       </c>
+      <c r="Y1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>5000</v>
       </c>
@@ -1958,16 +5060,28 @@
         <v>5000</v>
       </c>
       <c r="N2" s="3">
-        <v>14.3593799999999</v>
+        <v>22.98948</v>
       </c>
       <c r="O2" s="3">
-        <v>4.5294099999999897</v>
+        <v>4.9922500000000003</v>
       </c>
       <c r="P2" s="2">
-        <v>0.70113999999999999</v>
+        <v>1.8233200000000001</v>
+      </c>
+      <c r="Y2">
+        <v>5000</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>9.7129899999999996</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>2.62466499999999</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0.47929299999999903</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>6000</v>
       </c>
@@ -1984,16 +5098,28 @@
         <v>6000</v>
       </c>
       <c r="N3" s="2">
-        <v>12.83365</v>
+        <v>19.53501</v>
       </c>
       <c r="O3" s="2">
-        <v>3.8898899999999998</v>
+        <v>3.8226200000000001</v>
       </c>
       <c r="P3" s="2">
-        <v>0.90007999999999999</v>
+        <v>1.4857199999999999</v>
+      </c>
+      <c r="Y3">
+        <v>6000</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>9.7929770000000005</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>2.931775</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0.45739099999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>7000</v>
       </c>
@@ -2010,16 +5136,28 @@
         <v>7000</v>
       </c>
       <c r="N4" s="2">
-        <v>15.991499999999901</v>
+        <v>19.445569999999901</v>
       </c>
       <c r="O4" s="2">
-        <v>4.4949399999999997</v>
+        <v>5.1169399999999996</v>
       </c>
       <c r="P4" s="2">
-        <v>0.92313000000000001</v>
+        <v>1.4999400000000001</v>
+      </c>
+      <c r="Y4">
+        <v>7000</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>13.042518999999899</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>3.6709170000000002</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.422376999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>8000</v>
       </c>
@@ -2036,16 +5174,28 @@
         <v>8000</v>
       </c>
       <c r="N5" s="2">
-        <v>24.238399999999999</v>
+        <v>27.667660000000001</v>
       </c>
       <c r="O5" s="2">
-        <v>6.6419100000000002</v>
+        <v>6.4845899999999999</v>
       </c>
       <c r="P5" s="2">
-        <v>0.58149999999999902</v>
+        <v>0.95337000000000005</v>
+      </c>
+      <c r="Y5">
+        <v>8000</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>16.931180000000001</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>5.21164399999999</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.56025499999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>9000</v>
       </c>
@@ -2062,16 +5212,28 @@
         <v>9000</v>
       </c>
       <c r="N6" s="2">
-        <v>28.726099999999999</v>
+        <v>30.077310000000001</v>
       </c>
       <c r="O6" s="2">
-        <v>8.2780100000000001</v>
+        <v>7.86191</v>
       </c>
       <c r="P6" s="2">
-        <v>1.0793600000000001</v>
+        <v>1.42747</v>
+      </c>
+      <c r="Y6">
+        <v>9000</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>20.851994999999999</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>6.7504639999999902</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.56605499999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -2088,16 +5250,28 @@
         <v>10000</v>
       </c>
       <c r="N7" s="2">
-        <v>28.529620000000001</v>
+        <v>35.984569999999998</v>
       </c>
       <c r="O7" s="2">
-        <v>9.6173599999999997</v>
+        <v>8.93018</v>
       </c>
       <c r="P7" s="2">
-        <v>0.91942999999999997</v>
+        <v>0.96190999999999904</v>
+      </c>
+      <c r="Y7">
+        <v>10000</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>30.619876999999899</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>10.106643</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0.64714099999999897</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>11000</v>
       </c>
@@ -2114,16 +5288,28 @@
         <v>11000</v>
       </c>
       <c r="N8" s="2">
-        <v>33.809469999999997</v>
+        <v>47.365760000000002</v>
       </c>
       <c r="O8" s="2">
-        <v>10.824199999999999</v>
+        <v>14.24902</v>
       </c>
       <c r="P8" s="2">
-        <v>0.96134999999999904</v>
+        <v>0.76710999999999996</v>
+      </c>
+      <c r="Y8">
+        <v>11000</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>34.521780999999997</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>9.9267459999999996</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>0.72462899999999897</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>12000</v>
       </c>
@@ -2140,16 +5326,28 @@
         <v>12000</v>
       </c>
       <c r="N9" s="2">
-        <v>40.482709999999997</v>
+        <v>44.09019</v>
       </c>
       <c r="O9" s="2">
-        <v>10.778</v>
+        <v>12.832850000000001</v>
       </c>
       <c r="P9" s="2">
-        <v>1.2953399999999999</v>
+        <v>0.95762000000000003</v>
+      </c>
+      <c r="Y9">
+        <v>12000</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>36.656636999999897</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>11.563473999999999</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>0.86252499999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>13000</v>
       </c>
@@ -2166,16 +5364,28 @@
         <v>13000</v>
       </c>
       <c r="N10" s="1">
-        <v>57.411569999999998</v>
+        <v>45.873729999999902</v>
       </c>
       <c r="O10" s="1">
-        <v>14.24874</v>
+        <v>20.747209999999999</v>
       </c>
       <c r="P10" s="1">
-        <v>1.2503899999999999</v>
+        <v>1.9597599999999999</v>
+      </c>
+      <c r="Y10">
+        <v>13000</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>45.075401999999897</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>13.7593739999999</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0.96049300000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>14000</v>
       </c>
@@ -2192,16 +5402,28 @@
         <v>14000</v>
       </c>
       <c r="N11" s="1">
-        <v>52.496339999999996</v>
+        <v>181.72879999999901</v>
       </c>
       <c r="O11" s="1">
-        <v>16.50028</v>
+        <v>31.895139999999898</v>
       </c>
       <c r="P11" s="1">
-        <v>1.4421900000000001</v>
+        <v>1.9318299999999899</v>
+      </c>
+      <c r="Y11">
+        <v>14000</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>59.025865999999901</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>15.598356000000001</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>1.0596219999999901</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>15000</v>
       </c>
@@ -2218,16 +5440,28 @@
         <v>15000</v>
       </c>
       <c r="N12" s="1">
-        <v>60.916110000000003</v>
+        <v>66.076920000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>21.920479999999898</v>
+        <v>22.06061</v>
       </c>
       <c r="P12" s="1">
-        <v>1.55514999999999</v>
+        <v>1.5988499999999899</v>
+      </c>
+      <c r="Y12">
+        <v>15000</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>81.946194999999904</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>26.927256999999901</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>1.5969629999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>16000</v>
       </c>
@@ -2244,16 +5478,28 @@
         <v>16000</v>
       </c>
       <c r="N13" s="1">
-        <v>95.015829999999994</v>
+        <v>73.662400000000005</v>
       </c>
       <c r="O13" s="1">
-        <v>56.776679999999999</v>
+        <v>23.34646</v>
       </c>
       <c r="P13" s="1">
-        <v>4.6166400000000003</v>
+        <v>1.75596</v>
+      </c>
+      <c r="Y13">
+        <v>16000</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>102.804835</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>32.227576999999897</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1.8700029999999901</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>17000</v>
       </c>
@@ -2270,16 +5516,28 @@
         <v>17000</v>
       </c>
       <c r="N14" s="1">
-        <v>86.277249999999995</v>
+        <v>88.698169999999905</v>
       </c>
       <c r="O14" s="1">
-        <v>23.40081</v>
+        <v>26.8718</v>
       </c>
       <c r="P14" s="1">
-        <v>1.4456800000000001</v>
+        <v>1.42322999999999</v>
+      </c>
+      <c r="Y14">
+        <v>17000</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>115.681283999999</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>23.519027000000001</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>1.229525</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>18000</v>
       </c>
@@ -2296,16 +5554,28 @@
         <v>18000</v>
       </c>
       <c r="N15" s="1">
-        <v>98.277150000000006</v>
+        <v>91.345230000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>26.929559999999999</v>
+        <v>25.390239999999999</v>
       </c>
       <c r="P15" s="1">
-        <v>1.4250099999999899</v>
+        <v>1.2499499999999999</v>
+      </c>
+      <c r="Y15">
+        <v>18000</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>88.652259999999998</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>26.401167000000001</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>1.8255669999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>19000</v>
       </c>
@@ -2322,16 +5592,28 @@
         <v>19000</v>
       </c>
       <c r="N16" s="1">
-        <v>94.732680000000002</v>
+        <v>89.170879999999997</v>
       </c>
       <c r="O16" s="1">
-        <v>29.269690000000001</v>
+        <v>29.913609999999998</v>
       </c>
       <c r="P16" s="1">
-        <v>1.9488799999999999</v>
+        <v>1.3256999999999901</v>
+      </c>
+      <c r="Y16">
+        <v>19000</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>131.522932</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>30.793668</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>1.4071180000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>20000</v>
       </c>
@@ -2348,16 +5630,28 @@
         <v>20000</v>
       </c>
       <c r="N17" s="1">
-        <v>153.60168999999999</v>
+        <v>109.75796</v>
       </c>
       <c r="O17" s="1">
-        <v>50.087199999999903</v>
+        <v>39.228490000000001</v>
       </c>
       <c r="P17" s="1">
-        <v>2.0640100000000001</v>
+        <v>2.8006299999999902</v>
+      </c>
+      <c r="Y17">
+        <v>20000</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>116.56058599999901</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>35.290441999999999</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>1.7825629999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>21000</v>
       </c>
@@ -2374,16 +5668,28 @@
         <v>21000</v>
       </c>
       <c r="N18" s="1">
-        <v>169.51212999999899</v>
+        <v>145.77654000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>56.9017699999999</v>
+        <v>40.219819999999999</v>
       </c>
       <c r="P18" s="1">
-        <v>2.3094299999999999</v>
+        <v>1.9601199999999901</v>
+      </c>
+      <c r="Y18">
+        <v>21000</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>124.656083999999</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>33.786407999999902</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>1.5264179999999901</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>22000</v>
       </c>
@@ -2400,16 +5706,28 @@
         <v>22000</v>
       </c>
       <c r="N19" s="1">
-        <v>189.45932999999999</v>
+        <v>132.72393</v>
       </c>
       <c r="O19" s="1">
-        <v>58.517299999999999</v>
+        <v>38.43862</v>
       </c>
       <c r="P19" s="1">
-        <v>3.2714699999999999</v>
+        <v>2.8923000000000001</v>
+      </c>
+      <c r="Y19">
+        <v>22000</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>133.37461099999899</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>40.644452999999999</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>2.1884509999999899</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>23000</v>
       </c>
@@ -2426,16 +5744,28 @@
         <v>23000</v>
       </c>
       <c r="N20" s="1">
-        <v>247.07355000000001</v>
+        <v>176.31290999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>62.552639999999997</v>
+        <v>67.591920000000002</v>
       </c>
       <c r="P20" s="1">
-        <v>2.7814099999999899</v>
+        <v>2.51132</v>
+      </c>
+      <c r="Y20">
+        <v>23000</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>148.94528099999999</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>45.827163999999897</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>2.00949</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>24000</v>
       </c>
@@ -2452,16 +5782,28 @@
         <v>24000</v>
       </c>
       <c r="N21" s="1">
-        <v>236.675669999999</v>
+        <v>211.10656</v>
       </c>
       <c r="O21" s="1">
-        <v>74.218800000000002</v>
+        <v>68.026579999999996</v>
       </c>
       <c r="P21" s="1">
-        <v>3.4051200000000001</v>
+        <v>3.1374599999999999</v>
+      </c>
+      <c r="Y21">
+        <v>24000</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>156.12846300000001</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>47.530389999999997</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>2.0369749999999902</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>25000</v>
       </c>
@@ -2478,16 +5820,28 @@
         <v>25000</v>
       </c>
       <c r="N22" s="1">
-        <v>236.61043000000001</v>
+        <v>333.85816</v>
       </c>
       <c r="O22" s="1">
-        <v>81.561599999999999</v>
+        <v>81.108949999999993</v>
       </c>
       <c r="P22" s="1">
-        <v>3.95024</v>
+        <v>2.9432</v>
+      </c>
+      <c r="Y22">
+        <v>25000</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>173.00538099999901</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>53.689445999999897</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>2.2127059999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>26000</v>
       </c>
@@ -2504,16 +5858,28 @@
         <v>26000</v>
       </c>
       <c r="N23" s="1">
-        <v>264.737449999999</v>
+        <v>286.26864</v>
       </c>
       <c r="O23" s="1">
-        <v>131.89983999999899</v>
+        <v>77.688609999999997</v>
       </c>
       <c r="P23" s="1">
-        <v>6.5240099999999996</v>
+        <v>3.3912</v>
+      </c>
+      <c r="Y23">
+        <v>26000</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>196.12618199999901</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>83.109634999999898</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>3.1870169999999902</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>27000</v>
       </c>
@@ -2530,16 +5896,28 @@
         <v>27000</v>
       </c>
       <c r="N24" s="1">
-        <v>291.98518000000001</v>
+        <v>345.23115000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>87.272999999999996</v>
+        <v>87.46172</v>
       </c>
       <c r="P24" s="1">
-        <v>3.4136099999999998</v>
+        <v>3.3527499999999999</v>
+      </c>
+      <c r="Y24">
+        <v>27000</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>267.554813999999</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>83.511114999999904</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>3.2096290000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>28000</v>
       </c>
@@ -2556,16 +5934,28 @@
         <v>28000</v>
       </c>
       <c r="N25" s="1">
-        <v>312.06029999999998</v>
+        <v>290.10079000000002</v>
       </c>
       <c r="O25" s="1">
-        <v>94.243899999999996</v>
+        <v>93.263439999999903</v>
       </c>
       <c r="P25" s="1">
-        <v>3.7044700000000002</v>
+        <v>4.3387199999999897</v>
+      </c>
+      <c r="Y25">
+        <v>28000</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>286.98009399999899</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>81.811037999999996</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>2.0717560000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>29000</v>
       </c>
@@ -2582,16 +5972,28 @@
         <v>29000</v>
       </c>
       <c r="N26" s="1">
-        <v>340.10120000000001</v>
+        <v>331.43444</v>
       </c>
       <c r="O26" s="1">
-        <v>101.68519000000001</v>
+        <v>102.45189999999999</v>
       </c>
       <c r="P26" s="1">
-        <v>3.4699199999999899</v>
+        <v>3.7502300000000002</v>
+      </c>
+      <c r="Y26">
+        <v>29000</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>258.82401800000002</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>70.029272000000006</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>2.55071099999999</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>30000</v>
       </c>
@@ -2608,16 +6010,28 @@
         <v>30000</v>
       </c>
       <c r="N27" s="1">
-        <v>265.96402999999998</v>
+        <v>360.12108999999998</v>
       </c>
       <c r="O27" s="1">
-        <v>74.838049999999996</v>
+        <v>105.14722999999999</v>
       </c>
       <c r="P27" s="1">
-        <v>2.5130199999999898</v>
+        <v>4.2462499999999999</v>
+      </c>
+      <c r="Y27">
+        <v>30000</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>244.93095299999999</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>80.089246999999901</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>2.5583930000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>31000</v>
       </c>
@@ -2634,16 +6048,28 @@
         <v>31000</v>
       </c>
       <c r="N28" s="1">
-        <v>280.26351</v>
+        <v>374.70352000000003</v>
       </c>
       <c r="O28" s="1">
-        <v>81.476900000000001</v>
+        <v>113.0346</v>
       </c>
       <c r="P28" s="1">
-        <v>2.8041799999999899</v>
+        <v>3.51329</v>
+      </c>
+      <c r="Y28">
+        <v>31000</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>260.07032900000002</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>88.788926000000004</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>3.5182220000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>32000</v>
       </c>
@@ -2660,16 +6086,28 @@
         <v>32000</v>
       </c>
       <c r="N29" s="1">
-        <v>331.91807</v>
+        <v>430.96843999999999</v>
       </c>
       <c r="O29" s="1">
-        <v>85.108260000000001</v>
+        <v>130.25187999999901</v>
       </c>
       <c r="P29" s="1">
-        <v>2.5671599999999999</v>
+        <v>4.4435399999999996</v>
+      </c>
+      <c r="Y29">
+        <v>32000</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>341.18166799999898</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>118.117</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>3.7722069999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>33000</v>
       </c>
@@ -2686,16 +6124,28 @@
         <v>33000</v>
       </c>
       <c r="N30" s="1">
-        <v>300.36007000000001</v>
+        <v>438.07049999999998</v>
       </c>
       <c r="O30" s="1">
-        <v>90.242339999999899</v>
+        <v>139.75962999999999</v>
       </c>
       <c r="P30" s="1">
-        <v>2.6003799999999999</v>
+        <v>8.50673999999999</v>
+      </c>
+      <c r="Y30">
+        <v>33000</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>408.448375</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>127.98004400000001</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>4.0346359999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>34000</v>
       </c>
@@ -2712,16 +6162,28 @@
         <v>34000</v>
       </c>
       <c r="N31" s="1">
-        <v>340.82094999999998</v>
+        <v>386.21134000000001</v>
       </c>
       <c r="O31" s="1">
-        <v>93.762829999999994</v>
+        <v>100.937919999999</v>
       </c>
       <c r="P31" s="1">
-        <v>3.17821</v>
+        <v>2.8397199999999998</v>
+      </c>
+      <c r="Y31">
+        <v>34000</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>421.58519699999903</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>137.10071600000001</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>4.2821759999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>35000</v>
       </c>
@@ -2738,16 +6200,28 @@
         <v>35000</v>
       </c>
       <c r="N32" s="1">
-        <v>328.24231999999898</v>
+        <v>331.3082</v>
       </c>
       <c r="O32" s="1">
-        <v>108.34951</v>
+        <v>108.90761000000001</v>
       </c>
       <c r="P32" s="1">
-        <v>3.5030299999999999</v>
+        <v>2.6277099999999902</v>
+      </c>
+      <c r="Y32">
+        <v>35000</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>445.73665199999903</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>139.86855600000001</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>4.926933</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>

--- a/Algs/KR_Nikita/Лист Microsoft Excel.xlsx
+++ b/Algs/KR_Nikita/Лист Microsoft Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t>Размер</t>
   </si>
@@ -106,7 +106,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -274,9 +273,9 @@
             <c:numRef>
               <c:f>Аркуш1!$B$2:$B$32</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>14.3593799999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -511,9 +510,9 @@
             <c:numRef>
               <c:f>Аркуш1!$C$2:$C$32</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>4.5294099999999897</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -748,7 +747,7 @@
             <c:numRef>
               <c:f>Аркуш1!$D$2:$D$32</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0.70113999999999999</c:v>
@@ -983,7 +982,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2968,6 +2966,965 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$AL$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Выбором</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$AK$2:$AK$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$AL$2:$AL$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>5.91930599999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7292949999999898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9014869999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.749807000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.319043000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.736445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.970375000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.864035000000001</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>33.1413709999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>39.031855999999898</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>44.075682</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>50.127304000000002</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>56.3362529999999</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>63.108265999999901</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>70.543727999999902</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>77.884429999999995</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>85.664824999999993</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>94.093359999999905</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>102.523113</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>111.522629999999</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>123.110223</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>131.49254999999999</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>141.08928699999899</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>152.36953800000001</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>163.916898</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>174.050454</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00">
+                  <c:v>188.60286299999899</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>200.575853</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00">
+                  <c:v>210.50672599999899</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00">
+                  <c:v>223.73216400000001</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>237.09723399999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA31-4EDC-B7A4-D17D7E86E4F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$AM$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вставками</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$AK$2:$AK$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$AM$2:$AM$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>2.0671309999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3699880000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1073559999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1994389999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1557399999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.382193</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9512529999999897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2328699999999895</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>10.900321</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>12.6462489999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>14.379073999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>16.438334000000001</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>18.819907000000001</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>20.898319999999899</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>23.544235</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>25.590960999999901</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>28.2793139999999</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>30.854281999999898</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>33.615399999999902</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>36.867277999999999</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>39.903345000000002</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>42.991053000000001</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>46.427185999999999</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>51.149076999999998</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>53.728656000000001</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>59.379022999999897</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00">
+                  <c:v>61.546969999999902</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>65.790881999999996</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00">
+                  <c:v>70.290911999999906</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00">
+                  <c:v>74.096071999999893</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>78.308682999999903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AA31-4EDC-B7A4-D17D7E86E4F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$AN$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Слиянием</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$AK$2:$AK$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$AN$2:$AN$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.76664099999999902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45596999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53091500000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58597200000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65136299999999903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77646399999999904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0232920000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97184599999999999</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>1.0519270000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>1.2426009999999901</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>1.192161</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>1.5837459999999901</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>1.4539679999999999</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>1.653087</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>1.553493</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>1.66315999999999</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>1.79426</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>1.86834199999999</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>2.0338910000000001</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>2.0497289999999899</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>2.6106019999999899</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>2.7754779999999899</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>2.385783</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>2.3556119999999998</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>2.6308769999999999</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>2.3992830000000001</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00">
+                  <c:v>2.5101879999999999</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>5.6361590000000001</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00">
+                  <c:v>3.6168330000000002</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00">
+                  <c:v>4.3688310000000001</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>3.4384079999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AA31-4EDC-B7A4-D17D7E86E4F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1038215887"/>
+        <c:axId val="1038227119"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1038215887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1038227119"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1038227119"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1038215887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3088,6 +4045,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4121,6 +5118,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4701,15 +6214,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>187325</xdr:colOff>
+      <xdr:colOff>187324</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>541019</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>53339</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4723,6 +6236,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4994,18 +6537,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AN33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AK10" sqref="AK10"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AV22" sqref="AV22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5042,8 +6585,20 @@
       <c r="AB1" t="s">
         <v>3</v>
       </c>
+      <c r="AK1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5000</v>
       </c>
@@ -5080,8 +6635,20 @@
       <c r="AB2" s="2">
         <v>0.47929299999999903</v>
       </c>
+      <c r="AK2">
+        <v>5000</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>5.91930599999999</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>2.0671309999999998</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>0.76664099999999902</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6000</v>
       </c>
@@ -5118,8 +6685,20 @@
       <c r="AB3" s="2">
         <v>0.45739099999999999</v>
       </c>
+      <c r="AK3">
+        <v>6000</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>7.7292949999999898</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>2.3699880000000002</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>0.45596999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7000</v>
       </c>
@@ -5156,8 +6735,20 @@
       <c r="AB4" s="2">
         <v>0.422376999999999</v>
       </c>
+      <c r="AK4">
+        <v>7000</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>9.9014869999999995</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>3.1073559999999998</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>0.53091500000000003</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8000</v>
       </c>
@@ -5194,8 +6785,20 @@
       <c r="AB5" s="2">
         <v>0.56025499999999995</v>
       </c>
+      <c r="AK5">
+        <v>8000</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>12.749807000000001</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>4.1994389999999999</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>0.58597200000000005</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9000</v>
       </c>
@@ -5232,8 +6835,20 @@
       <c r="AB6" s="2">
         <v>0.56605499999999997</v>
       </c>
+      <c r="AK6">
+        <v>9000</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>16.319043000000001</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>5.1557399999999998</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>0.65136299999999903</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -5270,8 +6885,20 @@
       <c r="AB7" s="2">
         <v>0.64714099999999897</v>
       </c>
+      <c r="AK7">
+        <v>10000</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>19.736445</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>6.382193</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>0.77646399999999904</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11000</v>
       </c>
@@ -5308,8 +6935,20 @@
       <c r="AB8" s="2">
         <v>0.72462899999999897</v>
       </c>
+      <c r="AK8">
+        <v>11000</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>23.970375000000001</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>7.9512529999999897</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>1.0232920000000001</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12000</v>
       </c>
@@ -5346,8 +6985,20 @@
       <c r="AB9" s="2">
         <v>0.86252499999999999</v>
       </c>
+      <c r="AK9">
+        <v>12000</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>28.864035000000001</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>9.2328699999999895</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>0.97184599999999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13000</v>
       </c>
@@ -5384,8 +7035,20 @@
       <c r="AB10" s="1">
         <v>0.96049300000000004</v>
       </c>
+      <c r="AK10">
+        <v>13000</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>33.1413709999999</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>10.900321</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>1.0519270000000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14000</v>
       </c>
@@ -5422,8 +7085,20 @@
       <c r="AB11" s="1">
         <v>1.0596219999999901</v>
       </c>
+      <c r="AK11">
+        <v>14000</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>39.031855999999898</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>12.6462489999999</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>1.2426009999999901</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15000</v>
       </c>
@@ -5460,8 +7135,20 @@
       <c r="AB12" s="1">
         <v>1.5969629999999999</v>
       </c>
+      <c r="AK12">
+        <v>15000</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>44.075682</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>14.379073999999999</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>1.192161</v>
+      </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>16000</v>
       </c>
@@ -5498,8 +7185,20 @@
       <c r="AB13" s="1">
         <v>1.8700029999999901</v>
       </c>
+      <c r="AK13">
+        <v>16000</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>50.127304000000002</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>16.438334000000001</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>1.5837459999999901</v>
+      </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>17000</v>
       </c>
@@ -5536,8 +7235,20 @@
       <c r="AB14" s="1">
         <v>1.229525</v>
       </c>
+      <c r="AK14">
+        <v>17000</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>56.3362529999999</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>18.819907000000001</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>1.4539679999999999</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18000</v>
       </c>
@@ -5574,8 +7285,20 @@
       <c r="AB15" s="1">
         <v>1.8255669999999999</v>
       </c>
+      <c r="AK15">
+        <v>18000</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>63.108265999999901</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>20.898319999999899</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>1.653087</v>
+      </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>19000</v>
       </c>
@@ -5612,8 +7335,20 @@
       <c r="AB16" s="1">
         <v>1.4071180000000001</v>
       </c>
+      <c r="AK16">
+        <v>19000</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>70.543727999999902</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>23.544235</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>1.553493</v>
+      </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>20000</v>
       </c>
@@ -5650,8 +7385,20 @@
       <c r="AB17" s="1">
         <v>1.7825629999999999</v>
       </c>
+      <c r="AK17">
+        <v>20000</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>77.884429999999995</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>25.590960999999901</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>1.66315999999999</v>
+      </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>21000</v>
       </c>
@@ -5688,8 +7435,20 @@
       <c r="AB18" s="1">
         <v>1.5264179999999901</v>
       </c>
+      <c r="AK18">
+        <v>21000</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>85.664824999999993</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>28.2793139999999</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>1.79426</v>
+      </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>22000</v>
       </c>
@@ -5726,8 +7485,20 @@
       <c r="AB19" s="1">
         <v>2.1884509999999899</v>
       </c>
+      <c r="AK19">
+        <v>22000</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>94.093359999999905</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>30.854281999999898</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>1.86834199999999</v>
+      </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>23000</v>
       </c>
@@ -5764,8 +7535,20 @@
       <c r="AB20" s="1">
         <v>2.00949</v>
       </c>
+      <c r="AK20">
+        <v>23000</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>102.523113</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>33.615399999999902</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>2.0338910000000001</v>
+      </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>24000</v>
       </c>
@@ -5802,8 +7585,20 @@
       <c r="AB21" s="1">
         <v>2.0369749999999902</v>
       </c>
+      <c r="AK21">
+        <v>24000</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>111.522629999999</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>36.867277999999999</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>2.0497289999999899</v>
+      </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>25000</v>
       </c>
@@ -5840,8 +7635,20 @@
       <c r="AB22" s="1">
         <v>2.2127059999999998</v>
       </c>
+      <c r="AK22">
+        <v>25000</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>123.110223</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>39.903345000000002</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>2.6106019999999899</v>
+      </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>26000</v>
       </c>
@@ -5878,8 +7685,20 @@
       <c r="AB23" s="1">
         <v>3.1870169999999902</v>
       </c>
+      <c r="AK23">
+        <v>26000</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>131.49254999999999</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>42.991053000000001</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>2.7754779999999899</v>
+      </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>27000</v>
       </c>
@@ -5916,8 +7735,20 @@
       <c r="AB24" s="1">
         <v>3.2096290000000001</v>
       </c>
+      <c r="AK24">
+        <v>27000</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>141.08928699999899</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>46.427185999999999</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>2.385783</v>
+      </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28000</v>
       </c>
@@ -5954,8 +7785,20 @@
       <c r="AB25" s="1">
         <v>2.0717560000000002</v>
       </c>
+      <c r="AK25">
+        <v>28000</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>152.36953800000001</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>51.149076999999998</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>2.3556119999999998</v>
+      </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>29000</v>
       </c>
@@ -5992,8 +7835,20 @@
       <c r="AB26" s="1">
         <v>2.55071099999999</v>
       </c>
+      <c r="AK26">
+        <v>29000</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>163.916898</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>53.728656000000001</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>2.6308769999999999</v>
+      </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>30000</v>
       </c>
@@ -6030,8 +7885,20 @@
       <c r="AB27" s="1">
         <v>2.5583930000000001</v>
       </c>
+      <c r="AK27">
+        <v>30000</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>174.050454</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>59.379022999999897</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>2.3992830000000001</v>
+      </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>31000</v>
       </c>
@@ -6068,8 +7935,20 @@
       <c r="AB28" s="1">
         <v>3.5182220000000002</v>
       </c>
+      <c r="AK28">
+        <v>31000</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>188.60286299999899</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>61.546969999999902</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>2.5101879999999999</v>
+      </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>32000</v>
       </c>
@@ -6106,8 +7985,20 @@
       <c r="AB29" s="1">
         <v>3.7722069999999999</v>
       </c>
+      <c r="AK29">
+        <v>32000</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>200.575853</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>65.790881999999996</v>
+      </c>
+      <c r="AN29" s="1">
+        <v>5.6361590000000001</v>
+      </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>33000</v>
       </c>
@@ -6144,8 +8035,20 @@
       <c r="AB30" s="1">
         <v>4.0346359999999999</v>
       </c>
+      <c r="AK30">
+        <v>33000</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>210.50672599999899</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>70.290911999999906</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>3.6168330000000002</v>
+      </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>34000</v>
       </c>
@@ -6182,8 +8085,20 @@
       <c r="AB31" s="1">
         <v>4.2821759999999998</v>
       </c>
+      <c r="AK31">
+        <v>34000</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>223.73216400000001</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>74.096071999999893</v>
+      </c>
+      <c r="AN31" s="1">
+        <v>4.3688310000000001</v>
+      </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>35000</v>
       </c>
@@ -6220,8 +8135,20 @@
       <c r="AB32" s="1">
         <v>4.926933</v>
       </c>
+      <c r="AK32">
+        <v>35000</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>237.09723399999999</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>78.308682999999903</v>
+      </c>
+      <c r="AN32" s="1">
+        <v>3.4384079999999999</v>
+      </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>

--- a/Algs/KR_Nikita/Лист Microsoft Excel.xlsx
+++ b/Algs/KR_Nikita/Лист Microsoft Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
   <si>
     <t>Размер</t>
   </si>
@@ -106,6 +106,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -273,9 +274,9 @@
             <c:numRef>
               <c:f>Аркуш1!$B$2:$B$32</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>14.3593799999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -510,9 +511,9 @@
             <c:numRef>
               <c:f>Аркуш1!$C$2:$C$32</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>4.5294099999999897</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -747,7 +748,7 @@
             <c:numRef>
               <c:f>Аркуш1!$D$2:$D$32</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0.70113999999999999</c:v>
@@ -982,6 +983,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3149,9 +3151,9 @@
             <c:numRef>
               <c:f>Аркуш1!$AL$2:$AL$32</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>5.91930599999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -3386,9 +3388,9 @@
             <c:numRef>
               <c:f>Аркуш1!$AM$2:$AM$32</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>2.0671309999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -3623,7 +3625,7 @@
             <c:numRef>
               <c:f>Аркуш1!$AN$2:$AN$32</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0.76664099999999902</c:v>
@@ -3845,6 +3847,2325 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1038215887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11088648293963255"/>
+          <c:y val="0.17634259259259263"/>
+          <c:w val="0.8585579615048119"/>
+          <c:h val="0.56028543307086609"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Выбором</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$A$39:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$B$39:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2.5348746666666599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3926073333333302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8408220000000002</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>3.369523</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>3.8455400000000002</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>4.4431483333333297</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>4.9981303333333296</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>5.6597193333333298</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>6.2927999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>7.05966733333333</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>7.7721776666666598</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>8.5843249999999998</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>9.4111569999999993</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>10.3092886666666</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>11.227786</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>12.268229666666601</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>13.1030503333333</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>14.299013</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>15.189726333333301</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>16.249856000000001</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>17.346019999999999</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>18.6225006666666</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>19.819488</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>21.056526999999999</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>22.336523</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>23.708735333333301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-A4B9-450C-A1F5-C6BAF0587B63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вставками</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$A$39:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$C$39:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.69950266666666605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78804933333333305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92484133333333296</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>1.078554</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>1.2474386666666599</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>1.430169</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>1.6296059999999899</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>1.840411</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>2.06728633333333</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>2.2841396666666598</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>2.5565659999999899</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>2.7954633333333301</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>3.0754493333333301</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>3.3578983333333299</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>3.6534656666666598</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>3.9906280000000001</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>4.2847326666666596</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>4.6353600000000004</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>4.9678853333333297</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>5.4091779999999998</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>5.76079866666666</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>6.1129129999999998</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>6.5076366666666603</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>6.9709036666666604</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>7.3746343333333302</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>7.7978509999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-A4B9-450C-A1F5-C6BAF0587B63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$D$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Слиянием</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$A$39:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$D$39:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>9.6870999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8496333333333307E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1801999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>9.8885333333333297E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>0.105142666666666</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>0.111859</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>0.11857733333333299</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>0.13193199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>0.13687666666666601</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>0.14885266666666599</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>0.158578</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>0.168588666666666</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>0.17861099999999999</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>0.190334</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>0.20067233333333301</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>0.21532000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>0.22546366666666601</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>0.227032333333333</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>0.23039066666666599</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>0.24376666666666599</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>0.248712666666666</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>0.26889966666666598</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>0.268803666666666</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>0.27543600000000001</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>0.28576800000000002</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>0.30079333333333302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-A4B9-450C-A1F5-C6BAF0587B63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Выбором</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$A$39:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$B$39:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2.5348746666666599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3926073333333302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8408220000000002</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>3.369523</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>3.8455400000000002</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>4.4431483333333297</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>4.9981303333333296</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>5.6597193333333298</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>6.2927999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>7.05966733333333</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>7.7721776666666598</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>8.5843249999999998</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>9.4111569999999993</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>10.3092886666666</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>11.227786</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>12.268229666666601</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>13.1030503333333</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>14.299013</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>15.189726333333301</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>16.249856000000001</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>17.346019999999999</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>18.6225006666666</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>19.819488</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>21.056526999999999</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>22.336523</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>23.708735333333301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A4B9-450C-A1F5-C6BAF0587B63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вставками</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$A$39:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$C$39:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.69950266666666605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78804933333333305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92484133333333296</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>1.078554</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>1.2474386666666599</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>1.430169</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>1.6296059999999899</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>1.840411</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>2.06728633333333</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>2.2841396666666598</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>2.5565659999999899</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>2.7954633333333301</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>3.0754493333333301</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>3.3578983333333299</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>3.6534656666666598</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>3.9906280000000001</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>4.2847326666666596</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>4.6353600000000004</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>4.9678853333333297</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>5.4091779999999998</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>5.76079866666666</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>6.1129129999999998</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>6.5076366666666603</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>6.9709036666666604</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>7.3746343333333302</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>7.7978509999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-A4B9-450C-A1F5-C6BAF0587B63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$D$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Слиянием</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$A$39:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$D$39:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>9.6870999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8496333333333307E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1801999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>9.8885333333333297E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>0.105142666666666</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>0.111859</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>0.11857733333333299</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>0.13193199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>0.13687666666666601</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>0.14885266666666599</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>0.158578</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>0.168588666666666</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>0.17861099999999999</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>0.190334</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>0.20067233333333301</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>0.21532000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>0.22546366666666601</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>0.227032333333333</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>0.23039066666666599</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>0.24376666666666599</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>0.248712666666666</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>0.26889966666666598</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>0.268803666666666</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>0.27543600000000001</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>0.28576800000000002</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>0.30079333333333302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-A4B9-450C-A1F5-C6BAF0587B63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="227509808"/>
+        <c:axId val="227511056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="227509808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227511056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="227511056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227509808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Выбором</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$A$39:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$B$39:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2.5348746666666599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3926073333333302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8408220000000002</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>3.369523</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>3.8455400000000002</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>4.4431483333333297</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>4.9981303333333296</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>5.6597193333333298</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>6.2927999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>7.05966733333333</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>7.7721776666666598</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>8.5843249999999998</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>9.4111569999999993</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>10.3092886666666</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>11.227786</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>12.268229666666601</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>13.1030503333333</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>14.299013</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>15.189726333333301</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>16.249856000000001</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>17.346019999999999</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>18.6225006666666</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>19.819488</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>21.056526999999999</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>22.336523</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>23.708735333333301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B666-434C-8C28-8D947C7619DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вставками</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$A$39:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$C$39:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.69950266666666605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78804933333333305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92484133333333296</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>1.078554</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>1.2474386666666599</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>1.430169</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>1.6296059999999899</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>1.840411</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>2.06728633333333</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>2.2841396666666598</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>2.5565659999999899</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>2.7954633333333301</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>3.0754493333333301</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>3.3578983333333299</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>3.6534656666666598</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>3.9906280000000001</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>4.2847326666666596</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>4.6353600000000004</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>4.9678853333333297</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>5.4091779999999998</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>5.76079866666666</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>6.1129129999999998</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>6.5076366666666603</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>6.9709036666666604</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>7.3746343333333302</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>7.7978509999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B666-434C-8C28-8D947C7619DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$D$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Слиянием</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$A$39:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$D$39:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>9.6870999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8496333333333307E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1801999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>9.8885333333333297E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>0.105142666666666</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>0.111859</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>0.11857733333333299</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>0.13193199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>0.13687666666666601</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>0.14885266666666599</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>0.158578</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>0.168588666666666</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>0.17861099999999999</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>0.190334</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>0.20067233333333301</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>0.21532000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>0.22546366666666601</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>0.227032333333333</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>0.23039066666666599</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>0.24376666666666599</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>0.248712666666666</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>0.26889966666666598</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>0.268803666666666</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>0.27543600000000001</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>0.28576800000000002</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>0.30079333333333302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B666-434C-8C28-8D947C7619DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="198686848"/>
+        <c:axId val="302418048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="198686848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="302418048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="302418048"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198686848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4085,6 +6406,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5634,6 +7995,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6266,6 +9143,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6537,10 +9474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AV22" sqref="AV22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8148,10 +11085,388 @@
         <v>3.4384079999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>10000</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2.5348746666666599</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.69950266666666605</v>
+      </c>
+      <c r="D39" s="2">
+        <v>9.6870999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>11000</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2.3926073333333302</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.78804933333333305</v>
+      </c>
+      <c r="D40" s="2">
+        <v>7.8496333333333307E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>12000</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2.8408220000000002</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.92484133333333296</v>
+      </c>
+      <c r="D41" s="2">
+        <v>9.1801999999999995E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>13000</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3.369523</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1.078554</v>
+      </c>
+      <c r="D42" s="1">
+        <v>9.8885333333333297E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>14000</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3.8455400000000002</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.2474386666666599</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.105142666666666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>15000</v>
+      </c>
+      <c r="B44" s="1">
+        <v>4.4431483333333297</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1.430169</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.111859</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>16000</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4.9981303333333296</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.6296059999999899</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.11857733333333299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>17000</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5.6597193333333298</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.840411</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.13193199999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>18000</v>
+      </c>
+      <c r="B47" s="1">
+        <v>6.2927999999999997</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2.06728633333333</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.13687666666666601</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>19000</v>
+      </c>
+      <c r="B48" s="1">
+        <v>7.05966733333333</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2.2841396666666598</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.14885266666666599</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>20000</v>
+      </c>
+      <c r="B49" s="1">
+        <v>7.7721776666666598</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2.5565659999999899</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.158578</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>21000</v>
+      </c>
+      <c r="B50" s="1">
+        <v>8.5843249999999998</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2.7954633333333301</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.168588666666666</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>22000</v>
+      </c>
+      <c r="B51" s="1">
+        <v>9.4111569999999993</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3.0754493333333301</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.17861099999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>23000</v>
+      </c>
+      <c r="B52" s="1">
+        <v>10.3092886666666</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3.3578983333333299</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.190334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>24000</v>
+      </c>
+      <c r="B53" s="1">
+        <v>11.227786</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3.6534656666666598</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.20067233333333301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>25000</v>
+      </c>
+      <c r="B54" s="1">
+        <v>12.268229666666601</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3.9906280000000001</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.21532000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>26000</v>
+      </c>
+      <c r="B55" s="1">
+        <v>13.1030503333333</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4.2847326666666596</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.22546366666666601</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>27000</v>
+      </c>
+      <c r="B56" s="1">
+        <v>14.299013</v>
+      </c>
+      <c r="C56" s="1">
+        <v>4.6353600000000004</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.227032333333333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>28000</v>
+      </c>
+      <c r="B57" s="1">
+        <v>15.189726333333301</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4.9678853333333297</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.23039066666666599</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>29000</v>
+      </c>
+      <c r="B58" s="1">
+        <v>16.249856000000001</v>
+      </c>
+      <c r="C58" s="1">
+        <v>5.4091779999999998</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.24376666666666599</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>30000</v>
+      </c>
+      <c r="B59" s="1">
+        <v>17.346019999999999</v>
+      </c>
+      <c r="C59" s="1">
+        <v>5.76079866666666</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.248712666666666</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>31000</v>
+      </c>
+      <c r="B60" s="1">
+        <v>18.6225006666666</v>
+      </c>
+      <c r="C60" s="1">
+        <v>6.1129129999999998</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.26889966666666598</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>32000</v>
+      </c>
+      <c r="B61" s="1">
+        <v>19.819488</v>
+      </c>
+      <c r="C61" s="1">
+        <v>6.5076366666666603</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.268803666666666</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>33000</v>
+      </c>
+      <c r="B62" s="1">
+        <v>21.056526999999999</v>
+      </c>
+      <c r="C62" s="1">
+        <v>6.9709036666666604</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.27543600000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>34000</v>
+      </c>
+      <c r="B63" s="1">
+        <v>22.336523</v>
+      </c>
+      <c r="C63" s="1">
+        <v>7.3746343333333302</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.28576800000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>35000</v>
+      </c>
+      <c r="B64" s="1">
+        <v>23.708735333333301</v>
+      </c>
+      <c r="C64" s="1">
+        <v>7.7978509999999996</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.30079333333333302</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algs/KR_Nikita/Лист Microsoft Excel.xlsx
+++ b/Algs/KR_Nikita/Лист Microsoft Excel.xlsx
@@ -3942,6 +3942,44 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Размер</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> массива</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> время сортировки</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3979,612 +4017,18 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11088648293963255"/>
-          <c:y val="0.17634259259259263"/>
-          <c:w val="0.8585579615048119"/>
-          <c:h val="0.56028543307086609"/>
+          <c:x val="0.12355314960629921"/>
+          <c:y val="0.1902314814814815"/>
+          <c:w val="0.84589129483814518"/>
+          <c:h val="0.6714577865266842"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Аркуш1!$B$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Выбором</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Аркуш1!$A$39:$A$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>31000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>35000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Аркуш1!$B$39:$B$64</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>2.5348746666666599</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.3926073333333302</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8408220000000002</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00">
-                  <c:v>3.369523</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00">
-                  <c:v>3.8455400000000002</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>4.4431483333333297</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
-                  <c:v>4.9981303333333296</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00">
-                  <c:v>5.6597193333333298</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>6.2927999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>7.05966733333333</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00">
-                  <c:v>7.7721776666666598</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00">
-                  <c:v>8.5843249999999998</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>9.4111569999999993</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>10.3092886666666</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.00">
-                  <c:v>11.227786</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00">
-                  <c:v>12.268229666666601</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.00">
-                  <c:v>13.1030503333333</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00">
-                  <c:v>14.299013</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.00">
-                  <c:v>15.189726333333301</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.00">
-                  <c:v>16.249856000000001</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.00">
-                  <c:v>17.346019999999999</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="0.00">
-                  <c:v>18.6225006666666</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="0.00">
-                  <c:v>19.819488</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="0.00">
-                  <c:v>21.056526999999999</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0.00">
-                  <c:v>22.336523</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="0.00">
-                  <c:v>23.708735333333301</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-A4B9-450C-A1F5-C6BAF0587B63}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Аркуш1!$C$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Вставками</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Аркуш1!$A$39:$A$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>31000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>35000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Аркуш1!$C$39:$C$64</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>0.69950266666666605</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.78804933333333305</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.92484133333333296</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00">
-                  <c:v>1.078554</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00">
-                  <c:v>1.2474386666666599</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>1.430169</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
-                  <c:v>1.6296059999999899</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00">
-                  <c:v>1.840411</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>2.06728633333333</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>2.2841396666666598</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00">
-                  <c:v>2.5565659999999899</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00">
-                  <c:v>2.7954633333333301</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>3.0754493333333301</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>3.3578983333333299</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.00">
-                  <c:v>3.6534656666666598</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00">
-                  <c:v>3.9906280000000001</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.00">
-                  <c:v>4.2847326666666596</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00">
-                  <c:v>4.6353600000000004</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.00">
-                  <c:v>4.9678853333333297</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.00">
-                  <c:v>5.4091779999999998</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.00">
-                  <c:v>5.76079866666666</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="0.00">
-                  <c:v>6.1129129999999998</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="0.00">
-                  <c:v>6.5076366666666603</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="0.00">
-                  <c:v>6.9709036666666604</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0.00">
-                  <c:v>7.3746343333333302</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="0.00">
-                  <c:v>7.7978509999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-A4B9-450C-A1F5-C6BAF0587B63}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Аркуш1!$D$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Слиянием</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Аркуш1!$A$39:$A$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>31000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>35000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Аркуш1!$D$39:$D$64</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>9.6870999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.8496333333333307E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.1801999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00">
-                  <c:v>9.8885333333333297E-2</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00">
-                  <c:v>0.105142666666666</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>0.111859</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
-                  <c:v>0.11857733333333299</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00">
-                  <c:v>0.13193199999999999</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>0.13687666666666601</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>0.14885266666666599</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00">
-                  <c:v>0.158578</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00">
-                  <c:v>0.168588666666666</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>0.17861099999999999</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>0.190334</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.00">
-                  <c:v>0.20067233333333301</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00">
-                  <c:v>0.21532000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.00">
-                  <c:v>0.22546366666666601</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00">
-                  <c:v>0.227032333333333</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.00">
-                  <c:v>0.23039066666666599</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.00">
-                  <c:v>0.24376666666666599</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.00">
-                  <c:v>0.248712666666666</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="0.00">
-                  <c:v>0.26889966666666598</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="0.00">
-                  <c:v>0.268803666666666</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="0.00">
-                  <c:v>0.27543600000000001</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0.00">
-                  <c:v>0.28576800000000002</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="0.00">
-                  <c:v>0.30079333333333302</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-A4B9-450C-A1F5-C6BAF0587B63}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Аркуш1!$B$38</c:f>
@@ -4785,13 +4229,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-A4B9-450C-A1F5-C6BAF0587B63}"/>
+              <c16:uniqueId val="{00000000-B666-434C-8C28-8D947C7619DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="4"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Аркуш1!$C$38</c:f>
@@ -4992,13 +4436,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-A4B9-450C-A1F5-C6BAF0587B63}"/>
+              <c16:uniqueId val="{00000001-B666-434C-8C28-8D947C7619DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="5"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Аркуш1!$D$38</c:f>
@@ -5199,7 +4643,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-A4B9-450C-A1F5-C6BAF0587B63}"/>
+              <c16:uniqueId val="{00000002-B666-434C-8C28-8D947C7619DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5212,11 +4656,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="227509808"/>
-        <c:axId val="227511056"/>
+        <c:axId val="198686848"/>
+        <c:axId val="302418048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="227509808"/>
+        <c:axId val="198686848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5225,7 +4669,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -5259,16 +4703,17 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227511056"/>
+        <c:crossAx val="302418048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="0"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="227511056"/>
+        <c:axId val="302418048"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5318,13 +4763,20 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227509808"/>
+        <c:crossAx val="198686848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -5359,6 +4811,21 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -5433,11 +4900,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Аркуш1!$B$38</c:f>
+              <c:f>Аркуш1!$D$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Выбором</c:v>
+                  <c:v>Слиянием</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5543,87 +5010,87 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Аркуш1!$B$39:$B$64</c:f>
+              <c:f>Аркуш1!$D$39:$D$64</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2.5348746666666599</c:v>
+                  <c:v>9.6870999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3926073333333302</c:v>
+                  <c:v>7.8496333333333307E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8408220000000002</c:v>
+                  <c:v>9.1801999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00">
-                  <c:v>3.369523</c:v>
+                  <c:v>9.8885333333333297E-2</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00">
-                  <c:v>3.8455400000000002</c:v>
+                  <c:v>0.105142666666666</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
-                  <c:v>4.4431483333333297</c:v>
+                  <c:v>0.111859</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00">
-                  <c:v>4.9981303333333296</c:v>
+                  <c:v>0.11857733333333299</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00">
-                  <c:v>5.6597193333333298</c:v>
+                  <c:v>0.13193199999999999</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00">
-                  <c:v>6.2927999999999997</c:v>
+                  <c:v>0.13687666666666601</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00">
-                  <c:v>7.05966733333333</c:v>
+                  <c:v>0.14885266666666599</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00">
-                  <c:v>7.7721776666666598</c:v>
+                  <c:v>0.158578</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00">
-                  <c:v>8.5843249999999998</c:v>
+                  <c:v>0.168588666666666</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00">
-                  <c:v>9.4111569999999993</c:v>
+                  <c:v>0.17861099999999999</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00">
-                  <c:v>10.3092886666666</c:v>
+                  <c:v>0.190334</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00">
-                  <c:v>11.227786</c:v>
+                  <c:v>0.20067233333333301</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00">
-                  <c:v>12.268229666666601</c:v>
+                  <c:v>0.21532000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00">
-                  <c:v>13.1030503333333</c:v>
+                  <c:v>0.22546366666666601</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00">
-                  <c:v>14.299013</c:v>
+                  <c:v>0.227032333333333</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00">
-                  <c:v>15.189726333333301</c:v>
+                  <c:v>0.23039066666666599</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00">
-                  <c:v>16.249856000000001</c:v>
+                  <c:v>0.24376666666666599</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00">
-                  <c:v>17.346019999999999</c:v>
+                  <c:v>0.248712666666666</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00">
-                  <c:v>18.6225006666666</c:v>
+                  <c:v>0.26889966666666598</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00">
-                  <c:v>19.819488</c:v>
+                  <c:v>0.268803666666666</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00">
-                  <c:v>21.056526999999999</c:v>
+                  <c:v>0.27543600000000001</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00">
-                  <c:v>22.336523</c:v>
+                  <c:v>0.28576800000000002</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00">
-                  <c:v>23.708735333333301</c:v>
+                  <c:v>0.30079333333333302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5631,421 +5098,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B666-434C-8C28-8D947C7619DD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Аркуш1!$C$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Вставками</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Аркуш1!$A$39:$A$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>31000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>35000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Аркуш1!$C$39:$C$64</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>0.69950266666666605</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.78804933333333305</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.92484133333333296</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00">
-                  <c:v>1.078554</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00">
-                  <c:v>1.2474386666666599</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>1.430169</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
-                  <c:v>1.6296059999999899</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00">
-                  <c:v>1.840411</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>2.06728633333333</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>2.2841396666666598</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00">
-                  <c:v>2.5565659999999899</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00">
-                  <c:v>2.7954633333333301</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>3.0754493333333301</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>3.3578983333333299</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.00">
-                  <c:v>3.6534656666666598</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00">
-                  <c:v>3.9906280000000001</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.00">
-                  <c:v>4.2847326666666596</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00">
-                  <c:v>4.6353600000000004</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.00">
-                  <c:v>4.9678853333333297</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.00">
-                  <c:v>5.4091779999999998</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.00">
-                  <c:v>5.76079866666666</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="0.00">
-                  <c:v>6.1129129999999998</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="0.00">
-                  <c:v>6.5076366666666603</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="0.00">
-                  <c:v>6.9709036666666604</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0.00">
-                  <c:v>7.3746343333333302</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="0.00">
-                  <c:v>7.7978509999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B666-434C-8C28-8D947C7619DD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Аркуш1!$D$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Слиянием</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Аркуш1!$A$39:$A$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>31000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>35000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Аркуш1!$D$39:$D$64</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>9.6870999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.8496333333333307E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.1801999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00">
-                  <c:v>9.8885333333333297E-2</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00">
-                  <c:v>0.105142666666666</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>0.111859</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
-                  <c:v>0.11857733333333299</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00">
-                  <c:v>0.13193199999999999</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>0.13687666666666601</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>0.14885266666666599</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00">
-                  <c:v>0.158578</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00">
-                  <c:v>0.168588666666666</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>0.17861099999999999</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>0.190334</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.00">
-                  <c:v>0.20067233333333301</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00">
-                  <c:v>0.21532000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.00">
-                  <c:v>0.22546366666666601</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00">
-                  <c:v>0.227032333333333</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.00">
-                  <c:v>0.23039066666666599</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.00">
-                  <c:v>0.24376666666666599</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.00">
-                  <c:v>0.248712666666666</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="0.00">
-                  <c:v>0.26889966666666598</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="0.00">
-                  <c:v>0.268803666666666</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="0.00">
-                  <c:v>0.27543600000000001</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0.00">
-                  <c:v>0.28576800000000002</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="0.00">
-                  <c:v>0.30079333333333302</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B666-434C-8C28-8D947C7619DD}"/>
+              <c16:uniqueId val="{00000000-C0DA-4B13-90ED-152F99273DD4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6058,11 +5111,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="198686848"/>
-        <c:axId val="302418048"/>
+        <c:axId val="1177779887"/>
+        <c:axId val="1177780719"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198686848"/>
+        <c:axId val="1177779887"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6105,7 +5158,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302418048"/>
+        <c:crossAx val="1177780719"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6113,9 +5166,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="302418048"/>
+        <c:axId val="1177780719"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6165,7 +5217,885 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198686848"/>
+        <c:crossAx val="1177779887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Размер массива</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> время сортировки</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Выбором</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$A$39:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$B$39:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2.5348746666666599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3926073333333302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8408220000000002</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>3.369523</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>3.8455400000000002</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>4.4431483333333297</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>4.9981303333333296</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>5.6597193333333298</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>6.2927999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>7.05966733333333</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>7.7721776666666598</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>8.5843249999999998</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>9.4111569999999993</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>10.3092886666666</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>11.227786</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>12.268229666666601</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>13.1030503333333</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>14.299013</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>15.189726333333301</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>16.249856000000001</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>17.346019999999999</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>18.6225006666666</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>19.819488</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>21.056526999999999</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>22.336523</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>23.708735333333301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6EA7-4E00-BE5E-A6AB62CDAB16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вставками</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$A$39:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$C$39:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.69950266666666605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78804933333333305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92484133333333296</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>1.078554</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>1.2474386666666599</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>1.430169</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>1.6296059999999899</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>1.840411</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>2.06728633333333</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>2.2841396666666598</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>2.5565659999999899</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>2.7954633333333301</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>3.0754493333333301</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>3.3578983333333299</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>3.6534656666666598</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>3.9906280000000001</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>4.2847326666666596</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>4.6353600000000004</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>4.9678853333333297</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>5.4091779999999998</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>5.76079866666666</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>6.1129129999999998</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>6.5076366666666603</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>6.9709036666666604</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>7.3746343333333302</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>7.7978509999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6EA7-4E00-BE5E-A6AB62CDAB16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$D$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Слиянием</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$A$39:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$D$39:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>9.6870999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8496333333333307E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1801999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>9.8885333333333297E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>0.105142666666666</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>0.111859</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>0.11857733333333299</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>0.13193199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>0.13687666666666601</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>0.14885266666666599</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>0.158578</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>0.168588666666666</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>0.17861099999999999</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>0.190334</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>0.20067233333333301</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>0.21532000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>0.22546366666666601</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>0.227032333333333</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>0.23039066666666599</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>0.24376666666666599</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>0.248712666666666</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>0.26889966666666598</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>0.268803666666666</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>0.27543600000000001</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>0.28576800000000002</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>0.30079333333333302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6EA7-4E00-BE5E-A6AB62CDAB16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1174955119"/>
+        <c:axId val="1174953871"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1174955119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1174953871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1174953871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1174955119"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6446,6 +6376,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -8511,6 +8521,1038 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9151,19 +10193,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9180,20 +10222,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvPr id="9" name="Диаграмма 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9203,6 +10245,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Диаграмма 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9476,8 +10548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Algs/KR_Nikita/Лист Microsoft Excel.xlsx
+++ b/Algs/KR_Nikita/Лист Microsoft Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
   <si>
     <t>Размер</t>
   </si>
@@ -106,7 +106,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -983,6 +982,969 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Размер массива</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> время сортировки</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Выбором</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$39:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$B$39:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2.5348746666666599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3926073333333302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8408220000000002</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>3.369523</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>3.8455400000000002</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>4.4431483333333297</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>4.9981303333333296</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>5.6597193333333298</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>6.2927999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>7.05966733333333</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>7.7721776666666598</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>8.5843249999999998</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>9.4111569999999993</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>10.3092886666666</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>11.227786</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>12.268229666666601</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>13.1030503333333</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>14.299013</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>15.189726333333301</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>16.249856000000001</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>17.346019999999999</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>18.6225006666666</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>19.819488</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>21.056526999999999</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>22.336523</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>23.708735333333301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C593-4342-AEBE-A872E96713F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вставками</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$39:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$C$39:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.69950266666666605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78804933333333305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92484133333333296</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>1.078554</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>1.2474386666666599</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>1.430169</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>1.6296059999999899</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>1.840411</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>2.06728633333333</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>2.2841396666666598</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>2.5565659999999899</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>2.7954633333333301</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>3.0754493333333301</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>3.3578983333333299</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>3.6534656666666598</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>3.9906280000000001</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>4.2847326666666596</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>4.6353600000000004</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>4.9678853333333297</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>5.4091779999999998</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>5.76079866666666</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>6.1129129999999998</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>6.5076366666666603</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>6.9709036666666604</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>7.3746343333333302</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>7.7978509999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C593-4342-AEBE-A872E96713F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$D$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Слиянием</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$39:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$D$39:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>9.6870999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8496333333333307E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1801999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>9.8885333333333297E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>0.105142666666666</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>0.111859</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>0.11857733333333299</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>0.13193199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>0.13687666666666601</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>0.14885266666666599</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>0.158578</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>0.168588666666666</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>0.17861099999999999</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>0.190334</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>0.20067233333333301</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>0.21532000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>0.22546366666666601</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>0.227032333333333</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>0.23039066666666599</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>0.24376666666666599</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>0.248712666666666</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>0.26889966666666598</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>0.268803666666666</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>0.27543600000000001</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>0.28576800000000002</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>0.30079333333333302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C593-4342-AEBE-A872E96713F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1374511664"/>
+        <c:axId val="1374521648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1374511664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="35000"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1374521648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1374521648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1374511664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1065,7 +2027,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1942,7 +2903,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2024,7 +2984,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2901,7 +3860,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2983,7 +3941,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3860,7 +4817,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4708,6 +5664,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="0"/>
+        <c:tickMarkSkip val="1000"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -6176,7 +7133,1719 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$AB$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Выбором</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$AA$43:$AA$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$AB$43:$AB$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>65.873249999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.873249999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.754499999999901</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>96.975999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>110.48575</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>152.55924999999999</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>172.28825000000001</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>230.74775</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>266.52499999999998</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>284.04050000000001</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>367.48950000000002</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>463.6225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>419.33894318181899</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>453.88806905594402</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>611.68774999999903</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>638.06099999999901</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>735.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-94C2-401F-B16B-EA28D92D61FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$AC$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вставками</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$AA$43:$AA$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$AC$43:$AC$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>18.158000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.158000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.049250000000001</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>25.535499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>29.809750000000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>37.914999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>47.548499999999997</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>57.182000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>66.8155</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>76.448999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>106.5615</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>117.63724999999999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>163.91</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>132.75</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>160.19900000000001</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>205.51050000000001</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>236.36525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-94C2-401F-B16B-EA28D92D61FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$AD$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Слиянием</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$AA$43:$AA$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$AD$43:$AD$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10.3675</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.3675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.29725</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>17.06325</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>18.61975</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>23.287500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>24.77975</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>31.544</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>34.793583333333302</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>38.921833333333304</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>40.941749999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>48.191000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>69.994249999999994</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>57.10275</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>59.14725</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>74.005499999999998</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>83.509249999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-94C2-401F-B16B-EA28D92D61FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1372943264"/>
+        <c:axId val="1372952000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1372943264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1372952000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1372952000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1372943264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Размер массива</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> время сортировки</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Выбором</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$39:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$B$39:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2.5348746666666599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3926073333333302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8408220000000002</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>3.369523</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>3.8455400000000002</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>4.4431483333333297</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>4.9981303333333296</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>5.6597193333333298</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>6.2927999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>7.05966733333333</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>7.7721776666666598</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>8.5843249999999998</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>9.4111569999999993</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>10.3092886666666</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>11.227786</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>12.268229666666601</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>13.1030503333333</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>14.299013</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>15.189726333333301</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>16.249856000000001</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>17.346019999999999</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>18.6225006666666</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>19.819488</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>21.056526999999999</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>22.336523</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>23.708735333333301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A4A-42DE-9FE0-0C7AE2030F09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вставками</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$39:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$C$39:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.69950266666666605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78804933333333305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92484133333333296</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>1.078554</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>1.2474386666666599</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>1.430169</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>1.6296059999999899</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>1.840411</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>2.06728633333333</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>2.2841396666666598</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>2.5565659999999899</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>2.7954633333333301</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>3.0754493333333301</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>3.3578983333333299</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>3.6534656666666598</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>3.9906280000000001</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>4.2847326666666596</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>4.6353600000000004</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>4.9678853333333297</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>5.4091779999999998</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>5.76079866666666</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>6.1129129999999998</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>6.5076366666666603</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>6.9709036666666604</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>7.3746343333333302</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>7.7978509999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A4A-42DE-9FE0-0C7AE2030F09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$D$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Слиянием</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$39:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$D$39:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>9.6870999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8496333333333307E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1801999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>9.8885333333333297E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>0.105142666666666</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>0.111859</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>0.11857733333333299</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>0.13193199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>0.13687666666666601</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>0.14885266666666599</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>0.158578</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>0.168588666666666</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>0.17861099999999999</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>0.190334</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>0.20067233333333301</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>0.21532000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>0.22546366666666601</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>0.227032333333333</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>0.23039066666666599</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>0.24376666666666599</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>0.248712666666666</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>0.26889966666666598</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>0.268803666666666</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>0.27543600000000001</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>0.28576800000000002</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>0.30079333333333302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8A4A-42DE-9FE0-0C7AE2030F09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1374513744"/>
+        <c:axId val="1374524560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1374513744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="35000"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1374524560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1374524560"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="5.000000000000001E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1374513744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6456,6 +9125,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6972,8 +9721,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7000,8 +9749,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7081,11 +9830,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7096,11 +9840,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7112,7 +9851,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -7132,9 +9871,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7147,10 +9883,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -7190,22 +9926,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7310,8 +10047,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7443,19 +10180,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7469,6 +10207,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7488,7 +10237,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8004,7 +10753,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8520,7 +11269,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9036,7 +11785,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9552,7 +12301,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10049,6 +12798,1554 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -10280,6 +14577,96 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>422275</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Диаграмма 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Диаграмма 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10546,18 +14933,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN64"/>
+  <dimension ref="A1:AN68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="M80" sqref="M80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10607,7 +14994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>5000</v>
       </c>
@@ -10657,7 +15044,7 @@
         <v>0.76664099999999902</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>6000</v>
       </c>
@@ -10707,7 +15094,7 @@
         <v>0.45596999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>7000</v>
       </c>
@@ -10757,7 +15144,7 @@
         <v>0.53091500000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>8000</v>
       </c>
@@ -10807,7 +15194,7 @@
         <v>0.58597200000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>9000</v>
       </c>
@@ -10857,7 +15244,7 @@
         <v>0.65136299999999903</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -10907,7 +15294,7 @@
         <v>0.77646399999999904</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>11000</v>
       </c>
@@ -10957,7 +15344,7 @@
         <v>1.0232920000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>12000</v>
       </c>
@@ -11007,7 +15394,7 @@
         <v>0.97184599999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>13000</v>
       </c>
@@ -11057,7 +15444,7 @@
         <v>1.0519270000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>14000</v>
       </c>
@@ -11107,7 +15494,7 @@
         <v>1.2426009999999901</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>15000</v>
       </c>
@@ -11157,7 +15544,7 @@
         <v>1.192161</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>16000</v>
       </c>
@@ -11207,7 +15594,7 @@
         <v>1.5837459999999901</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>17000</v>
       </c>
@@ -11257,7 +15644,7 @@
         <v>1.4539679999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>18000</v>
       </c>
@@ -11307,7 +15694,7 @@
         <v>1.653087</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>19000</v>
       </c>
@@ -11357,7 +15744,7 @@
         <v>1.553493</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>20000</v>
       </c>
@@ -11407,7 +15794,7 @@
         <v>1.66315999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>21000</v>
       </c>
@@ -11457,7 +15844,7 @@
         <v>1.79426</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>22000</v>
       </c>
@@ -11507,7 +15894,7 @@
         <v>1.86834199999999</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>23000</v>
       </c>
@@ -11557,7 +15944,7 @@
         <v>2.0338910000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>24000</v>
       </c>
@@ -11607,7 +15994,7 @@
         <v>2.0497289999999899</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>25000</v>
       </c>
@@ -11657,7 +16044,7 @@
         <v>2.6106019999999899</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>26000</v>
       </c>
@@ -11707,7 +16094,7 @@
         <v>2.7754779999999899</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>27000</v>
       </c>
@@ -11757,7 +16144,7 @@
         <v>2.385783</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>28000</v>
       </c>
@@ -11807,7 +16194,7 @@
         <v>2.3556119999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>29000</v>
       </c>
@@ -11857,7 +16244,7 @@
         <v>2.6308769999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>30000</v>
       </c>
@@ -11907,7 +16294,7 @@
         <v>2.3992830000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>31000</v>
       </c>
@@ -11957,7 +16344,7 @@
         <v>2.5101879999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>32000</v>
       </c>
@@ -12007,7 +16394,7 @@
         <v>5.6361590000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>33000</v>
       </c>
@@ -12057,7 +16444,7 @@
         <v>3.6168330000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>34000</v>
       </c>
@@ -12107,7 +16494,7 @@
         <v>4.3688310000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>35000</v>
       </c>
@@ -12157,12 +16544,12 @@
         <v>3.4384079999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -12176,7 +16563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>10000</v>
       </c>
@@ -12190,7 +16577,7 @@
         <v>9.6870999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>11000</v>
       </c>
@@ -12204,7 +16591,7 @@
         <v>7.8496333333333307E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>12000</v>
       </c>
@@ -12218,7 +16605,7 @@
         <v>9.1801999999999995E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>13000</v>
       </c>
@@ -12231,8 +16618,20 @@
       <c r="D42" s="1">
         <v>9.8885333333333297E-2</v>
       </c>
+      <c r="AA42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>14000</v>
       </c>
@@ -12245,8 +16644,20 @@
       <c r="D43" s="1">
         <v>0.105142666666666</v>
       </c>
+      <c r="AA43">
+        <v>1000</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>65.873249999999999</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>18.158000000000001</v>
+      </c>
+      <c r="AD43" s="2">
+        <v>10.3675</v>
+      </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>15000</v>
       </c>
@@ -12259,8 +16670,20 @@
       <c r="D44" s="1">
         <v>0.111859</v>
       </c>
+      <c r="AA44">
+        <v>1250</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>65.873249999999999</v>
+      </c>
+      <c r="AC44" s="2">
+        <v>18.158000000000001</v>
+      </c>
+      <c r="AD44" s="2">
+        <v>10.3675</v>
+      </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>16000</v>
       </c>
@@ -12273,8 +16696,20 @@
       <c r="D45" s="1">
         <v>0.11857733333333299</v>
       </c>
+      <c r="AA45">
+        <v>1500</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>60.754499999999901</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>18.049250000000001</v>
+      </c>
+      <c r="AD45" s="2">
+        <v>13.29725</v>
+      </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>17000</v>
       </c>
@@ -12287,8 +16722,20 @@
       <c r="D46" s="1">
         <v>0.13193199999999999</v>
       </c>
+      <c r="AA46">
+        <v>1750</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>96.975999999999999</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>25.535499999999999</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>17.06325</v>
+      </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>18000</v>
       </c>
@@ -12301,8 +16748,20 @@
       <c r="D47" s="1">
         <v>0.13687666666666601</v>
       </c>
+      <c r="AA47">
+        <v>2000</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>110.48575</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>29.809750000000001</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>18.61975</v>
+      </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>19000</v>
       </c>
@@ -12315,8 +16774,20 @@
       <c r="D48" s="1">
         <v>0.14885266666666599</v>
       </c>
+      <c r="AA48">
+        <v>2250</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>152.55924999999999</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>37.914999999999999</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>23.287500000000001</v>
+      </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>20000</v>
       </c>
@@ -12329,8 +16800,20 @@
       <c r="D49" s="1">
         <v>0.158578</v>
       </c>
+      <c r="AA49">
+        <v>2500</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>172.28825000000001</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>47.548499999999997</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>24.77975</v>
+      </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>21000</v>
       </c>
@@ -12343,8 +16826,20 @@
       <c r="D50" s="1">
         <v>0.168588666666666</v>
       </c>
+      <c r="AA50">
+        <v>2750</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>230.74775</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>57.182000000000002</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>31.544</v>
+      </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>22000</v>
       </c>
@@ -12357,8 +16852,20 @@
       <c r="D51" s="1">
         <v>0.17861099999999999</v>
       </c>
+      <c r="AA51">
+        <v>3000</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>266.52499999999998</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>66.8155</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>34.793583333333302</v>
+      </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>23000</v>
       </c>
@@ -12371,8 +16878,20 @@
       <c r="D52" s="1">
         <v>0.190334</v>
       </c>
+      <c r="AA52">
+        <v>3250</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>284.04050000000001</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>76.448999999999998</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>38.921833333333304</v>
+      </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>24000</v>
       </c>
@@ -12385,8 +16904,20 @@
       <c r="D53" s="1">
         <v>0.20067233333333301</v>
       </c>
+      <c r="AA53">
+        <v>3500</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>367.48950000000002</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>106.5615</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>40.941749999999999</v>
+      </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>25000</v>
       </c>
@@ -12399,8 +16930,20 @@
       <c r="D54" s="1">
         <v>0.21532000000000001</v>
       </c>
+      <c r="AA54">
+        <v>3750</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>463.6225</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>117.63724999999999</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>48.191000000000003</v>
+      </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>26000</v>
       </c>
@@ -12413,8 +16956,20 @@
       <c r="D55" s="1">
         <v>0.22546366666666601</v>
       </c>
+      <c r="AA55">
+        <v>4000</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>419.33894318181899</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>163.91</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>69.994249999999994</v>
+      </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>27000</v>
       </c>
@@ -12427,8 +16982,20 @@
       <c r="D56" s="1">
         <v>0.227032333333333</v>
       </c>
+      <c r="AA56">
+        <v>4250</v>
+      </c>
+      <c r="AB56" s="2">
+        <v>453.88806905594402</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>132.75</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>57.10275</v>
+      </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>28000</v>
       </c>
@@ -12441,8 +17008,20 @@
       <c r="D57" s="1">
         <v>0.23039066666666599</v>
       </c>
+      <c r="AA57">
+        <v>4500</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>611.68774999999903</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>160.19900000000001</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>59.14725</v>
+      </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>29000</v>
       </c>
@@ -12455,8 +17034,20 @@
       <c r="D58" s="1">
         <v>0.24376666666666599</v>
       </c>
+      <c r="AA58">
+        <v>4750</v>
+      </c>
+      <c r="AB58" s="1">
+        <v>638.06099999999901</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>205.51050000000001</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>74.005499999999998</v>
+      </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>30000</v>
       </c>
@@ -12469,8 +17060,20 @@
       <c r="D59" s="1">
         <v>0.248712666666666</v>
       </c>
+      <c r="AA59">
+        <v>5000</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>735.06</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>236.36525</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>83.509249999999994</v>
+      </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>31000</v>
       </c>
@@ -12483,8 +17086,11 @@
       <c r="D60" s="1">
         <v>0.26889966666666598</v>
       </c>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>32000</v>
       </c>
@@ -12497,8 +17103,11 @@
       <c r="D61" s="1">
         <v>0.268803666666666</v>
       </c>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>33000</v>
       </c>
@@ -12511,8 +17120,11 @@
       <c r="D62" s="1">
         <v>0.27543600000000001</v>
       </c>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>34000</v>
       </c>
@@ -12525,8 +17137,11 @@
       <c r="D63" s="1">
         <v>0.28576800000000002</v>
       </c>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>35000</v>
       </c>
@@ -12539,6 +17154,29 @@
       <c r="D64" s="1">
         <v>0.30079333333333302</v>
       </c>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+    </row>
+    <row r="65" spans="28:30" x14ac:dyDescent="0.35">
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+    </row>
+    <row r="66" spans="28:30" x14ac:dyDescent="0.35">
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+    </row>
+    <row r="67" spans="28:30" x14ac:dyDescent="0.35">
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+    </row>
+    <row r="68" spans="28:30" x14ac:dyDescent="0.35">
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algs/KR_Nikita/Лист Microsoft Excel.xlsx
+++ b/Algs/KR_Nikita/Лист Microsoft Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -5816,7 +5816,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6280,7 +6279,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7066,7 +7064,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7148,7 +7145,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7772,7 +7768,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14935,16 +14930,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="M80" sqref="M80"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="N101" sqref="C86:N101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14994,7 +14989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5000</v>
       </c>
@@ -15044,7 +15039,7 @@
         <v>0.76664099999999902</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6000</v>
       </c>
@@ -15094,7 +15089,7 @@
         <v>0.45596999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7000</v>
       </c>
@@ -15144,7 +15139,7 @@
         <v>0.53091500000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8000</v>
       </c>
@@ -15194,7 +15189,7 @@
         <v>0.58597200000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9000</v>
       </c>
@@ -15244,7 +15239,7 @@
         <v>0.65136299999999903</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -15294,7 +15289,7 @@
         <v>0.77646399999999904</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11000</v>
       </c>
@@ -15344,7 +15339,7 @@
         <v>1.0232920000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12000</v>
       </c>
@@ -15394,7 +15389,7 @@
         <v>0.97184599999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13000</v>
       </c>
@@ -15444,7 +15439,7 @@
         <v>1.0519270000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14000</v>
       </c>
@@ -15494,7 +15489,7 @@
         <v>1.2426009999999901</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15000</v>
       </c>
@@ -15544,7 +15539,7 @@
         <v>1.192161</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>16000</v>
       </c>
@@ -15594,7 +15589,7 @@
         <v>1.5837459999999901</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>17000</v>
       </c>
@@ -15644,7 +15639,7 @@
         <v>1.4539679999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18000</v>
       </c>
@@ -15694,7 +15689,7 @@
         <v>1.653087</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>19000</v>
       </c>
@@ -15744,7 +15739,7 @@
         <v>1.553493</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>20000</v>
       </c>
@@ -15794,7 +15789,7 @@
         <v>1.66315999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>21000</v>
       </c>
@@ -15844,7 +15839,7 @@
         <v>1.79426</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>22000</v>
       </c>
@@ -15894,7 +15889,7 @@
         <v>1.86834199999999</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>23000</v>
       </c>
@@ -15944,7 +15939,7 @@
         <v>2.0338910000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>24000</v>
       </c>
@@ -15994,7 +15989,7 @@
         <v>2.0497289999999899</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>25000</v>
       </c>
@@ -16044,7 +16039,7 @@
         <v>2.6106019999999899</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>26000</v>
       </c>
@@ -16094,7 +16089,7 @@
         <v>2.7754779999999899</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>27000</v>
       </c>
@@ -16144,7 +16139,7 @@
         <v>2.385783</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28000</v>
       </c>
@@ -16194,7 +16189,7 @@
         <v>2.3556119999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>29000</v>
       </c>
@@ -16244,7 +16239,7 @@
         <v>2.6308769999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>30000</v>
       </c>
@@ -16294,7 +16289,7 @@
         <v>2.3992830000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>31000</v>
       </c>
@@ -16344,7 +16339,7 @@
         <v>2.5101879999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>32000</v>
       </c>
@@ -16394,7 +16389,7 @@
         <v>5.6361590000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>33000</v>
       </c>
@@ -16444,7 +16439,7 @@
         <v>3.6168330000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>34000</v>
       </c>
@@ -16494,7 +16489,7 @@
         <v>4.3688310000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>35000</v>
       </c>
@@ -16544,12 +16539,12 @@
         <v>3.4384079999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -16563,7 +16558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>10000</v>
       </c>
@@ -16577,7 +16572,7 @@
         <v>9.6870999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>11000</v>
       </c>
@@ -16591,7 +16586,7 @@
         <v>7.8496333333333307E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>12000</v>
       </c>
@@ -16605,7 +16600,7 @@
         <v>9.1801999999999995E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>13000</v>
       </c>
@@ -16631,7 +16626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>14000</v>
       </c>
@@ -16657,7 +16652,7 @@
         <v>10.3675</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>15000</v>
       </c>
@@ -16683,7 +16678,7 @@
         <v>10.3675</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>16000</v>
       </c>
@@ -16709,7 +16704,7 @@
         <v>13.29725</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>17000</v>
       </c>
@@ -16735,7 +16730,7 @@
         <v>17.06325</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>18000</v>
       </c>
@@ -16761,7 +16756,7 @@
         <v>18.61975</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>19000</v>
       </c>
@@ -16787,7 +16782,7 @@
         <v>23.287500000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>20000</v>
       </c>
@@ -16813,7 +16808,7 @@
         <v>24.77975</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>21000</v>
       </c>
@@ -16839,7 +16834,7 @@
         <v>31.544</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>22000</v>
       </c>
@@ -16865,7 +16860,7 @@
         <v>34.793583333333302</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>23000</v>
       </c>
@@ -16891,7 +16886,7 @@
         <v>38.921833333333304</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>24000</v>
       </c>
@@ -16917,7 +16912,7 @@
         <v>40.941749999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>25000</v>
       </c>
@@ -16943,7 +16938,7 @@
         <v>48.191000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>26000</v>
       </c>
@@ -16969,7 +16964,7 @@
         <v>69.994249999999994</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>27000</v>
       </c>
@@ -16995,7 +16990,7 @@
         <v>57.10275</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>28000</v>
       </c>
@@ -17021,7 +17016,7 @@
         <v>59.14725</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>29000</v>
       </c>
@@ -17047,7 +17042,7 @@
         <v>74.005499999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>30000</v>
       </c>
@@ -17073,7 +17068,7 @@
         <v>83.509249999999994</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>31000</v>
       </c>
@@ -17090,7 +17085,7 @@
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>32000</v>
       </c>
@@ -17107,7 +17102,7 @@
       <c r="AC61" s="1"/>
       <c r="AD61" s="1"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>33000</v>
       </c>
@@ -17124,7 +17119,7 @@
       <c r="AC62" s="1"/>
       <c r="AD62" s="1"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>34000</v>
       </c>
@@ -17141,7 +17136,7 @@
       <c r="AC63" s="1"/>
       <c r="AD63" s="1"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>35000</v>
       </c>
@@ -17158,22 +17153,22 @@
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
     </row>
-    <row r="65" spans="28:30" x14ac:dyDescent="0.35">
+    <row r="65" spans="28:30" x14ac:dyDescent="0.3">
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
       <c r="AD65" s="1"/>
     </row>
-    <row r="66" spans="28:30" x14ac:dyDescent="0.35">
+    <row r="66" spans="28:30" x14ac:dyDescent="0.3">
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
       <c r="AD66" s="1"/>
     </row>
-    <row r="67" spans="28:30" x14ac:dyDescent="0.35">
+    <row r="67" spans="28:30" x14ac:dyDescent="0.3">
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
       <c r="AD67" s="1"/>
     </row>
-    <row r="68" spans="28:30" x14ac:dyDescent="0.35">
+    <row r="68" spans="28:30" x14ac:dyDescent="0.3">
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
       <c r="AD68" s="1"/>
